--- a/Data/Forecasts/IDA2/2023-12-01_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA2/2023-12-01_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>200.0782165527344</v>
+        <v>190.2720336914062</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45261.47916666666</v>
       </c>
       <c r="B3" t="n">
-        <v>198.5628204345703</v>
+        <v>188.2866973876953</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45261.5</v>
       </c>
       <c r="B4" t="n">
-        <v>190.0049285888672</v>
+        <v>179.1955718994141</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="B5" t="n">
-        <v>190.2690582275391</v>
+        <v>179.2254791259766</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45261.54166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>194.7538909912109</v>
+        <v>181.0870666503906</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45261.5625</v>
       </c>
       <c r="B7" t="n">
-        <v>189.7018432617188</v>
+        <v>175.9044952392578</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>186.539794921875</v>
+        <v>178.6998138427734</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="B9" t="n">
-        <v>192.905517578125</v>
+        <v>180.3567657470703</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45261.625</v>
       </c>
       <c r="B10" t="n">
-        <v>205.8157501220703</v>
+        <v>195.4346923828125</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="B11" t="n">
-        <v>216.4310607910156</v>
+        <v>206.8852233886719</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45261.66666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>207.8438110351562</v>
+        <v>211.4739837646484</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45261.6875</v>
       </c>
       <c r="B13" t="n">
-        <v>243.4117889404297</v>
+        <v>242.8189544677734</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45261.70833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>265.1648559570312</v>
+        <v>263.66455078125</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45261.72916666666</v>
       </c>
       <c r="B15" t="n">
-        <v>265.7411499023438</v>
+        <v>260.4147033691406</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45261.75</v>
       </c>
       <c r="B16" t="n">
-        <v>217.1245269775391</v>
+        <v>215.7895202636719</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45261.77083333334</v>
       </c>
       <c r="B17" t="n">
-        <v>196.8183441162109</v>
+        <v>196.5757293701172</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45261.79166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>188.8045654296875</v>
+        <v>177.3250885009766</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45261.8125</v>
       </c>
       <c r="B19" t="n">
-        <v>178.1306457519531</v>
+        <v>168.6316833496094</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45261.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>172.3090667724609</v>
+        <v>154.1441345214844</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45261.85416666666</v>
       </c>
       <c r="B21" t="n">
-        <v>163.3256530761719</v>
+        <v>142.3265075683594</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45261.875</v>
       </c>
       <c r="B22" t="n">
-        <v>150.9512939453125</v>
+        <v>141.2400817871094</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45261.89583333334</v>
       </c>
       <c r="B23" t="n">
-        <v>138.9849853515625</v>
+        <v>130.4773254394531</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45261.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>127.8423843383789</v>
+        <v>123.952522277832</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45261.9375</v>
       </c>
       <c r="B25" t="n">
-        <v>119.2830657958984</v>
+        <v>118.3817138671875</v>
       </c>
     </row>
   </sheetData>
